--- a/5.Other/Thông tin IMEI bán hàng/ĐL nhận.xlsx
+++ b/5.Other/Thông tin IMEI bán hàng/ĐL nhận.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thông tin IMEI bán hàng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE61162-9E00-426C-841D-8EDB23244C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD12878-693D-4B3D-80B1-2C630C126939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="154">
   <si>
     <t>Tên ĐL</t>
   </si>
@@ -471,13 +471,22 @@
     <t>0766308308</t>
   </si>
   <si>
-    <t>Minh Huy</t>
-  </si>
-  <si>
     <t>Đường Tản Viên, gần nhà văn hoá khu 5 Vân Phú, Việt Trì, Phú Thọ</t>
   </si>
   <si>
     <t>0989643789</t>
+  </si>
+  <si>
+    <t>Công ty AT Việt Nam</t>
+  </si>
+  <si>
+    <t>anh Tĩnh</t>
+  </si>
+  <si>
+    <t>Số nhà D9, Khu nhà ở U&amp;I ĐƯỜNG An Phú 18, P.An Phú, TP.Thuận An, T.Bình Dương</t>
+  </si>
+  <si>
+    <t>0938076988</t>
   </si>
 </sst>
 </file>
@@ -500,13 +509,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -515,6 +517,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF081B3A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -566,32 +575,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -890,19 +899,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -919,7 +928,7 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -936,7 +945,7 @@
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -953,7 +962,7 @@
       <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -970,7 +979,7 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -987,7 +996,7 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1004,7 +1013,7 @@
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1019,7 +1028,7 @@
       <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1036,7 +1045,7 @@
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1053,7 +1062,7 @@
       <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1070,7 +1079,7 @@
       <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1087,7 +1096,7 @@
       <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1104,7 +1113,7 @@
       <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1307,7 +1316,7 @@
       <c r="D26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1454,7 +1463,7 @@
       <c r="D35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1488,7 +1497,7 @@
       <c r="D37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1505,7 +1514,7 @@
       <c r="D38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="9" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1539,7 +1548,7 @@
       <c r="D40" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="9" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1562,28 +1571,34 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="6" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/5.Other/Thông tin IMEI bán hàng/ĐL nhận.xlsx
+++ b/5.Other/Thông tin IMEI bán hàng/ĐL nhận.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thông tin IMEI bán hàng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD12878-693D-4B3D-80B1-2C630C126939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9FE97F-AADE-44B4-8E5A-7968E4A5655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
